--- a/EffortEstimation/PMSheets/PM_13_06_19.xlsx
+++ b/EffortEstimation/PMSheets/PM_13_06_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7D746-5149-4A68-82AA-FF8FDE633921}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5CF0A-2FA0-4D13-8AFB-7F2D1660F34C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Task</t>
   </si>
@@ -46,6 +45,15 @@
   </si>
   <si>
     <t>Responsible</t>
+  </si>
+  <si>
+    <t>Finishing the Settings functionality</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Haris Jusic</t>
   </si>
 </sst>
 </file>
@@ -397,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F2C8F5-78B6-4FD6-848E-31F3B1C084B5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +434,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EffortEstimation/PMSheets/PM_13_06_19.xlsx
+++ b/EffortEstimation/PMSheets/PM_13_06_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5CF0A-2FA0-4D13-8AFB-7F2D1660F34C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F62243E-5C33-4208-92A1-A33138E1E66F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
